--- a/students.xlsx
+++ b/students.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10476"/>
+    <workbookView windowWidth="23040" windowHeight="10464"/>
   </bookViews>
   <sheets>
     <sheet name="Student Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>Roll No</t>
   </si>
@@ -23,13 +22,19 @@
     <t>Name</t>
   </si>
   <si>
+    <t>CRT Batch</t>
+  </si>
+  <si>
     <t>Dept</t>
   </si>
   <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>XYZ</t>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>SuperSet</t>
   </si>
   <si>
     <t>Naukri</t>
@@ -56,9 +61,15 @@
     <t>Meera</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>CIVIL</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>23CSE002</t>
   </si>
   <si>
@@ -74,6 +85,9 @@
     <t>Sneha</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>EEE</t>
   </si>
   <si>
@@ -81,6 +95,9 @@
   </si>
   <si>
     <t>Arjun</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>23CSE005</t>
@@ -154,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +200,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -205,29 +285,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -236,23 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,57 +316,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,43 +338,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,139 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +541,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -542,36 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,15 +582,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -611,156 +591,186 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,18 +1128,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="10" width="15" customWidth="1"/>
+    <col min="1" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,30 +1149,30 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
@@ -1172,849 +1182,975 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
       </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>81</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>60</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>51</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>46</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>81</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>97</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>46</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>81</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>93</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>51</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>87</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>99</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>44</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>87</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>99</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
+      <c r="F5">
         <v>43</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>78</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>99</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>48</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>91</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>93</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>43</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>91</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>93</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
         <v>48</v>
-      </c>
-      <c r="E6">
-        <v>54</v>
-      </c>
-      <c r="F6">
-        <v>72</v>
       </c>
       <c r="G6">
         <v>54</v>
       </c>
       <c r="H6">
+        <v>72</v>
+      </c>
+      <c r="I6">
+        <v>54</v>
+      </c>
+      <c r="J6">
         <v>49</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>57</v>
-      </c>
-      <c r="J6">
-        <v>57</v>
-      </c>
-      <c r="K6">
-        <v>49</v>
       </c>
       <c r="L6">
         <v>57</v>
       </c>
       <c r="M6">
+        <v>49</v>
+      </c>
+      <c r="N6">
         <v>57</v>
       </c>
+      <c r="O6">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>57</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>46</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>66</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>72</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>72</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>87</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>64</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>72</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>87</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
         <v>56</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>70</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>58</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>68</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>73</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>98</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>93</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>73</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>98</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
         <v>72</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>80</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>77</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>95</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>65</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>47</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>83</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>65</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>47</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
         <v>67</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>62</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>96</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>69</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>81</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>60</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>74</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>81</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>60</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
         <v>94</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>57</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>76</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>93</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>95</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>45</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>58</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>95</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>45</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
         <v>85</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>71</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>72</v>
-      </c>
-      <c r="G12">
-        <v>63</v>
-      </c>
-      <c r="H12">
-        <v>53</v>
       </c>
       <c r="I12">
         <v>63</v>
       </c>
       <c r="J12">
+        <v>53</v>
+      </c>
+      <c r="K12">
+        <v>63</v>
+      </c>
+      <c r="L12">
         <v>77</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>53</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>63</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
         <v>56</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>67</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>72</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>42</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>73</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>59</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>83</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>73</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>59</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>83</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <v>98</v>
+      </c>
+      <c r="K14">
+        <v>68</v>
+      </c>
+      <c r="L14">
+        <v>67</v>
+      </c>
+      <c r="M14">
+        <v>98</v>
+      </c>
+      <c r="N14">
+        <v>68</v>
+      </c>
+      <c r="O14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>68</v>
-      </c>
-      <c r="E14">
-        <v>61</v>
-      </c>
-      <c r="F14">
-        <v>83</v>
-      </c>
-      <c r="G14">
-        <v>95</v>
-      </c>
-      <c r="H14">
-        <v>98</v>
-      </c>
-      <c r="I14">
-        <v>68</v>
-      </c>
-      <c r="J14">
-        <v>67</v>
-      </c>
-      <c r="K14">
-        <v>98</v>
-      </c>
-      <c r="L14">
-        <v>68</v>
-      </c>
-      <c r="M14">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
+      <c r="F15">
         <v>96</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>94</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>64</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>49</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>50</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>82</v>
-      </c>
-      <c r="J15">
-        <v>82</v>
-      </c>
-      <c r="K15">
-        <v>50</v>
       </c>
       <c r="L15">
         <v>82</v>
       </c>
       <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
         <v>82</v>
       </c>
+      <c r="O15">
+        <v>82</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <v>84</v>
+      </c>
+      <c r="I16">
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>69</v>
+      </c>
+      <c r="L16">
+        <v>85</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>69</v>
+      </c>
+      <c r="O16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <v>78</v>
+      </c>
+      <c r="I17">
+        <v>87</v>
+      </c>
+      <c r="J17">
+        <v>54</v>
+      </c>
+      <c r="K17">
+        <v>60</v>
+      </c>
+      <c r="L17">
+        <v>88</v>
+      </c>
+      <c r="M17">
+        <v>54</v>
+      </c>
+      <c r="N17">
+        <v>60</v>
+      </c>
+      <c r="O17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>94</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>67</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>46</v>
+      </c>
+      <c r="M18">
+        <v>67</v>
+      </c>
+      <c r="N18">
+        <v>90</v>
+      </c>
+      <c r="O18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>52</v>
+      </c>
+      <c r="J19">
+        <v>98</v>
+      </c>
+      <c r="K19">
+        <v>82</v>
+      </c>
+      <c r="L19">
+        <v>94</v>
+      </c>
+      <c r="M19">
+        <v>98</v>
+      </c>
+      <c r="N19">
+        <v>82</v>
+      </c>
+      <c r="O19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>72</v>
+      </c>
+      <c r="G20">
+        <v>42</v>
+      </c>
+      <c r="H20">
+        <v>75</v>
+      </c>
+      <c r="I20">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <v>94</v>
+      </c>
+      <c r="K20">
+        <v>53</v>
+      </c>
+      <c r="L20">
+        <v>73</v>
+      </c>
+      <c r="M20">
+        <v>94</v>
+      </c>
+      <c r="N20">
+        <v>53</v>
+      </c>
+      <c r="O20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>56</v>
+      </c>
+      <c r="G21">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>93</v>
+      </c>
+      <c r="J21">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>66</v>
+      </c>
+      <c r="L21">
+        <v>93</v>
+      </c>
+      <c r="M21">
+        <v>85</v>
+      </c>
+      <c r="N21">
+        <v>66</v>
+      </c>
+      <c r="O21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="D16">
-        <v>66</v>
-      </c>
-      <c r="E16">
-        <v>44</v>
-      </c>
-      <c r="F16">
-        <v>84</v>
-      </c>
-      <c r="G16">
-        <v>41</v>
-      </c>
-      <c r="H16">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>81</v>
+      </c>
+      <c r="G22">
+        <v>83</v>
+      </c>
+      <c r="H22">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>48</v>
+      </c>
+      <c r="J22">
+        <v>63</v>
+      </c>
+      <c r="K22">
         <v>50</v>
       </c>
-      <c r="I16">
-        <v>69</v>
-      </c>
-      <c r="J16">
-        <v>85</v>
-      </c>
-      <c r="K16">
+      <c r="L22">
+        <v>98</v>
+      </c>
+      <c r="M22">
+        <v>63</v>
+      </c>
+      <c r="N22">
         <v>50</v>
       </c>
-      <c r="L16">
-        <v>69</v>
-      </c>
-      <c r="M16">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>65</v>
-      </c>
-      <c r="E17">
-        <v>52</v>
-      </c>
-      <c r="F17">
-        <v>78</v>
-      </c>
-      <c r="G17">
-        <v>87</v>
-      </c>
-      <c r="H17">
-        <v>54</v>
-      </c>
-      <c r="I17">
-        <v>60</v>
-      </c>
-      <c r="J17">
-        <v>88</v>
-      </c>
-      <c r="K17">
-        <v>54</v>
-      </c>
-      <c r="L17">
-        <v>60</v>
-      </c>
-      <c r="M17">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>43</v>
-      </c>
-      <c r="E18">
-        <v>94</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <v>76</v>
-      </c>
-      <c r="H18">
-        <v>67</v>
-      </c>
-      <c r="I18">
-        <v>90</v>
-      </c>
-      <c r="J18">
-        <v>46</v>
-      </c>
-      <c r="K18">
-        <v>67</v>
-      </c>
-      <c r="L18">
-        <v>90</v>
-      </c>
-      <c r="M18">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>48</v>
-      </c>
-      <c r="F19">
-        <v>74</v>
-      </c>
-      <c r="G19">
-        <v>52</v>
-      </c>
-      <c r="H19">
-        <v>98</v>
-      </c>
-      <c r="I19">
-        <v>82</v>
-      </c>
-      <c r="J19">
-        <v>94</v>
-      </c>
-      <c r="K19">
-        <v>98</v>
-      </c>
-      <c r="L19">
-        <v>82</v>
-      </c>
-      <c r="M19">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>72</v>
-      </c>
-      <c r="E20">
-        <v>42</v>
-      </c>
-      <c r="F20">
-        <v>75</v>
-      </c>
-      <c r="G20">
-        <v>45</v>
-      </c>
-      <c r="H20">
-        <v>94</v>
-      </c>
-      <c r="I20">
-        <v>53</v>
-      </c>
-      <c r="J20">
-        <v>73</v>
-      </c>
-      <c r="K20">
-        <v>94</v>
-      </c>
-      <c r="L20">
-        <v>53</v>
-      </c>
-      <c r="M20">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>56</v>
-      </c>
-      <c r="E21">
-        <v>63</v>
-      </c>
-      <c r="F21">
-        <v>86</v>
-      </c>
-      <c r="G21">
-        <v>93</v>
-      </c>
-      <c r="H21">
-        <v>85</v>
-      </c>
-      <c r="I21">
-        <v>66</v>
-      </c>
-      <c r="J21">
-        <v>93</v>
-      </c>
-      <c r="K21">
-        <v>85</v>
-      </c>
-      <c r="L21">
-        <v>66</v>
-      </c>
-      <c r="M21">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>81</v>
-      </c>
-      <c r="E22">
-        <v>83</v>
-      </c>
-      <c r="F22">
-        <v>96</v>
-      </c>
-      <c r="G22">
-        <v>48</v>
-      </c>
-      <c r="H22">
-        <v>63</v>
-      </c>
-      <c r="I22">
-        <v>50</v>
-      </c>
-      <c r="J22">
-        <v>98</v>
-      </c>
-      <c r="K22">
-        <v>63</v>
-      </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
-      <c r="M22">
+      <c r="O22">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
